--- a/documents/fiche_de_suivi_d'activités/Fiche_suivi_activite_semaines.xlsx
+++ b/documents/fiche_de_suivi_d'activités/Fiche_suivi_activite_semaines.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\Quideance\documents\fiche_de_suivi_d'activités\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E3A32294-D5D6-4BF2-9D7A-754520D38706}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50FE4359-9851-4A62-B512-28693E445242}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="27600" windowHeight="15630" xr2:uid="{8810C51A-9A3B-4456-89E2-7A9318B208A8}"/>
   </bookViews>
@@ -417,30 +417,15 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -449,13 +434,12 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -464,11 +448,27 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Lien hypertexte 2" xfId="3" xr:uid="{26C49473-D052-44B5-B193-1462222797F5}"/>
@@ -794,7 +794,7 @@
   <dimension ref="B1:I20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -812,399 +812,399 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:9" ht="24.75" x14ac:dyDescent="0.3">
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
     </row>
     <row r="2" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="6" t="s">
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="17" t="s">
+      <c r="G2" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="20" t="s">
+      <c r="H2" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="21"/>
+      <c r="I2" s="17"/>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="10"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="22"/>
-      <c r="I3" s="23"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="19"/>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="12">
+      <c r="C4" s="7">
         <v>44620</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="4">
         <v>1</v>
       </c>
-      <c r="E4" s="16" t="s">
+      <c r="E4" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="13"/>
-      <c r="G4" s="19"/>
-      <c r="H4" s="24"/>
-      <c r="I4" s="24"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="12">
+      <c r="C5" s="7">
         <v>44627</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="4">
         <v>2</v>
       </c>
-      <c r="E5" s="16" t="s">
+      <c r="E5" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="13"/>
-      <c r="G5" s="19"/>
-      <c r="H5" s="24"/>
-      <c r="I5" s="24"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="12">
+      <c r="C6" s="7">
         <v>44634</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="4">
         <v>3</v>
       </c>
-      <c r="E6" s="13" t="s">
+      <c r="E6" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="8"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="15"/>
+    </row>
+    <row r="7" spans="2:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="7">
+        <v>44641</v>
+      </c>
+      <c r="D7" s="4">
+        <v>4</v>
+      </c>
+      <c r="E7" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="F6" s="13" t="s">
+      <c r="F7" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="G6" s="19" t="s">
+      <c r="G7" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="H6" s="25" t="s">
+      <c r="H7" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="I6" s="26"/>
-    </row>
-    <row r="7" spans="2:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="4" t="s">
+      <c r="I7" s="15"/>
+    </row>
+    <row r="8" spans="2:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="12">
-        <v>44641</v>
-      </c>
-      <c r="D7" s="5">
-        <v>4</v>
-      </c>
-      <c r="E7" s="13" t="s">
+      <c r="C8" s="7">
+        <v>44648</v>
+      </c>
+      <c r="D8" s="4">
+        <v>5</v>
+      </c>
+      <c r="E8" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="F7" s="13" t="s">
+      <c r="F8" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="G7" s="19" t="s">
+      <c r="G8" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="H7" s="25" t="s">
+      <c r="H8" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="I7" s="26"/>
-    </row>
-    <row r="8" spans="2:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="4" t="s">
+      <c r="I8" s="15"/>
+    </row>
+    <row r="9" spans="2:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="7">
+        <v>44655</v>
+      </c>
+      <c r="D9" s="4">
+        <v>6</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H9" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="I9" s="15"/>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B10" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="7">
+        <v>44662</v>
+      </c>
+      <c r="D10" s="4">
+        <v>7</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="G10" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="H10" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="I10" s="15"/>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B11" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="7">
+        <v>44669</v>
+      </c>
+      <c r="D11" s="4">
+        <v>8</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="G11" s="12"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B12" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="7">
+        <v>44676</v>
+      </c>
+      <c r="D12" s="4">
+        <v>9</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G12" s="12"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="15"/>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B13" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="7">
+        <v>44683</v>
+      </c>
+      <c r="D13" s="4">
         <v>10</v>
       </c>
-      <c r="C8" s="12">
-        <v>44648</v>
-      </c>
-      <c r="D8" s="5">
-        <v>5</v>
-      </c>
-      <c r="E8" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="F8" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="G8" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="H8" s="25" t="s">
+      <c r="E13" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" s="9"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="15"/>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B14" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="7">
+        <v>44690</v>
+      </c>
+      <c r="D14" s="4">
+        <v>11</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F14" s="8"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="I14" s="14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B15" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="7">
+        <v>44697</v>
+      </c>
+      <c r="D15" s="4">
+        <v>12</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F15" s="8"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="I15" s="14" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B16" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" s="7">
+        <v>44704</v>
+      </c>
+      <c r="D16" s="4">
+        <v>13</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F16" s="8"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="I16" s="14" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B17" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" s="7">
+        <v>44711</v>
+      </c>
+      <c r="D17" s="4">
+        <v>14</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F17" s="8"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="I17" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="I8" s="26"/>
-    </row>
-    <row r="9" spans="2:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="12">
-        <v>44655</v>
-      </c>
-      <c r="D9" s="5">
-        <v>6</v>
-      </c>
-      <c r="E9" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="F9" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="G9" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="H9" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="I9" s="26"/>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B10" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" s="12">
-        <v>44662</v>
-      </c>
-      <c r="D10" s="5">
-        <v>7</v>
-      </c>
-      <c r="E10" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="F10" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="G10" s="19"/>
-      <c r="H10" s="26"/>
-      <c r="I10" s="26"/>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B11" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" s="12">
-        <v>44669</v>
-      </c>
-      <c r="D11" s="5">
-        <v>8</v>
-      </c>
-      <c r="E11" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="F11" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="G11" s="19"/>
-      <c r="H11" s="26"/>
-      <c r="I11" s="26"/>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B12" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" s="12">
-        <v>44676</v>
-      </c>
-      <c r="D12" s="5">
-        <v>9</v>
-      </c>
-      <c r="E12" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="F12" s="14"/>
-      <c r="G12" s="15"/>
-      <c r="H12" s="26"/>
-      <c r="I12" s="26"/>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B13" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" s="12">
-        <v>44683</v>
-      </c>
-      <c r="D13" s="5">
-        <v>10</v>
-      </c>
-      <c r="E13" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="F13" s="13"/>
-      <c r="G13" s="19"/>
-      <c r="H13" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="I13" s="25" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B14" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C14" s="12">
-        <v>44690</v>
-      </c>
-      <c r="D14" s="5">
-        <v>11</v>
-      </c>
-      <c r="E14" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="F14" s="13"/>
-      <c r="G14" s="19"/>
-      <c r="H14" s="25" t="s">
-        <v>35</v>
-      </c>
-      <c r="I14" s="25" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B15" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C15" s="12">
-        <v>44697</v>
-      </c>
-      <c r="D15" s="5">
-        <v>12</v>
-      </c>
-      <c r="E15" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="F15" s="13"/>
-      <c r="G15" s="19"/>
-      <c r="H15" s="25" t="s">
-        <v>34</v>
-      </c>
-      <c r="I15" s="25" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B16" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C16" s="12">
-        <v>44704</v>
-      </c>
-      <c r="D16" s="5">
-        <v>13</v>
-      </c>
-      <c r="E16" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="F16" s="13"/>
-      <c r="G16" s="19"/>
-      <c r="H16" s="25" t="s">
-        <v>36</v>
-      </c>
-      <c r="I16" s="25" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B17" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C17" s="12">
-        <v>44711</v>
-      </c>
-      <c r="D17" s="5">
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B18" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E17" s="16" t="s">
+      <c r="C18" s="7">
+        <v>44718</v>
+      </c>
+      <c r="D18" s="4">
+        <v>15</v>
+      </c>
+      <c r="E18" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="F17" s="13"/>
-      <c r="G17" s="19"/>
-      <c r="H17" s="25" t="s">
+      <c r="F18" s="8"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="I17" s="26"/>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B18" s="4" t="s">
+      <c r="I18" s="15"/>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B19" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C18" s="12">
-        <v>44718</v>
-      </c>
-      <c r="D18" s="5">
-        <v>15</v>
-      </c>
-      <c r="E18" s="16" t="s">
+      <c r="C19" s="7">
+        <v>44725</v>
+      </c>
+      <c r="D19" s="4">
+        <v>16</v>
+      </c>
+      <c r="E19" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="F18" s="13"/>
-      <c r="G18" s="19"/>
-      <c r="H18" s="25" t="s">
+      <c r="F19" s="8"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="I18" s="26"/>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B19" s="4" t="s">
+      <c r="I19" s="15"/>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B20" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C19" s="12">
-        <v>44725</v>
-      </c>
-      <c r="D19" s="5">
-        <v>16</v>
-      </c>
-      <c r="E19" s="16" t="s">
+      <c r="C20" s="7">
+        <v>44732</v>
+      </c>
+      <c r="D20" s="4">
+        <v>17</v>
+      </c>
+      <c r="E20" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="F19" s="13"/>
-      <c r="G19" s="19"/>
-      <c r="H19" s="25"/>
-      <c r="I19" s="26"/>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B20" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C20" s="12">
-        <v>44732</v>
-      </c>
-      <c r="D20" s="5">
-        <v>17</v>
-      </c>
-      <c r="E20" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="F20" s="13"/>
-      <c r="G20" s="19"/>
-      <c r="H20" s="25"/>
-      <c r="I20" s="26"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="14"/>
+      <c r="I20" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="5">
